--- a/PattRecClasses-bays-V3/PattRecClasses/PhaseEstimation/DataGenerator-ReaderTools/SyntheticAdaptive/SemiHMMdataGenerator/MCprobs.xlsx
+++ b/PattRecClasses-bays-V3/PattRecClasses/PhaseEstimation/DataGenerator-ReaderTools/SyntheticAdaptive/SemiHMMdataGenerator/MCprobs.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +411,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -423,10 +423,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
